--- a/doc/Tables.xlsx
+++ b/doc/Tables.xlsx
@@ -93,10 +93,10 @@
     <t>Detach/Delete/Create</t>
   </si>
   <si>
-    <t>Modify</t>
-  </si>
-  <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>Update/Modify</t>
   </si>
 </sst>
 </file>
@@ -285,20 +285,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,7 +590,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,16 +603,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -621,14 +621,14 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -663,10 +663,10 @@
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="G6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -703,7 +703,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
@@ -711,7 +711,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1"/>
@@ -781,7 +781,7 @@
       <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -795,7 +795,7 @@
       <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">

--- a/doc/Tables.xlsx
+++ b/doc/Tables.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
-    <t>SecurityList's Egress Rules:</t>
-  </si>
-  <si>
     <t>CIDR</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Update/Modify</t>
+  </si>
+  <si>
+    <t>SecurityList's Egress Rules</t>
   </si>
 </sst>
 </file>
@@ -184,6 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,6 +233,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -243,9 +253,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -285,20 +292,23 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,7 +600,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,16 +613,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -621,185 +631,185 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>0</v>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>13</v>
+      <c r="B10" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>14</v>
+      <c r="B11" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="15" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>18</v>
+      <c r="D17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
